--- a/Pruebas/app copy/datos.xlsx
+++ b/Pruebas/app copy/datos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cruz del Cid\Desktop\Glucom\Pruebas\app copy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294C829D-8A54-4762-A4F2-A91F2240A851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="16515" windowHeight="7245"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ing. Anibal Vargas</author>
   </authors>
   <commentList>
-    <comment ref="B75" authorId="0">
+    <comment ref="B75" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A114" authorId="0">
+    <comment ref="A114" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E134" authorId="0">
+    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -146,8 +152,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +232,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -272,7 +286,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,9 +318,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,6 +370,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -513,20 +563,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="11.42578125" style="1"/>
     <col min="5" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -540,7 +590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -557,7 +607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -574,7 +624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -591,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -608,7 +658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -625,7 +675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -642,7 +692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -659,7 +709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -676,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -693,7 +743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -710,7 +760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -727,7 +777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -744,7 +794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -761,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -778,7 +828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -795,7 +845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -812,7 +862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -829,7 +879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -846,7 +896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -863,7 +913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -880,7 +930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -897,7 +947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -914,7 +964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -931,7 +981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -948,7 +998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -965,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -982,7 +1032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -999,7 +1049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1016,7 +1066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1033,7 +1083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1050,7 +1100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1067,7 +1117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1084,7 +1134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1101,7 +1151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1118,7 +1168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1135,7 +1185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1152,7 +1202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1169,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1186,7 +1236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1203,7 +1253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1220,7 +1270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1237,7 +1287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1254,7 +1304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1271,7 +1321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1288,7 +1338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1305,7 +1355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1322,7 +1372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1339,7 +1389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1356,7 +1406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1373,7 +1423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1390,7 +1440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1407,7 +1457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1424,7 +1474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1441,7 +1491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1458,7 +1508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1475,7 +1525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1492,7 +1542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1509,7 +1559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1526,7 +1576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1543,7 +1593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1560,7 +1610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1577,7 +1627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1594,7 +1644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1611,7 +1661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1628,7 +1678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1645,7 +1695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1662,7 +1712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1679,7 +1729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1696,7 +1746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1713,7 +1763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1730,7 +1780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1747,7 +1797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1764,7 +1814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1781,7 +1831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1798,7 +1848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1815,7 +1865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1832,7 +1882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1849,7 +1899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1866,7 +1916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1883,7 +1933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1900,7 +1950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1917,7 +1967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1934,7 +1984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1951,7 +2001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1968,7 +2018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1985,7 +2035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2002,7 +2052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2019,7 +2069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2036,7 +2086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2053,7 +2103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2070,7 +2120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2087,7 +2137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2104,7 +2154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2121,7 +2171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2138,7 +2188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -2155,7 +2205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -2172,7 +2222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -2189,7 +2239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -2206,7 +2256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -2223,7 +2273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -2240,7 +2290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -2257,7 +2307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -2274,7 +2324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -2291,7 +2341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -2308,7 +2358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -2325,7 +2375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -2342,7 +2392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -2359,7 +2409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -2376,7 +2426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -2393,7 +2443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -2410,7 +2460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -2427,7 +2477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -2444,7 +2494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -2461,7 +2511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -2478,7 +2528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -2495,7 +2545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -2512,7 +2562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -2529,7 +2579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -2546,10 +2596,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -2566,7 +2616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -2583,7 +2633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -2600,7 +2650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -2617,7 +2667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -2634,7 +2684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -2651,7 +2701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -2668,7 +2718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -2685,7 +2735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -2702,7 +2752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -2719,7 +2769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -2736,7 +2786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -2753,7 +2803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -2770,7 +2820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -2787,7 +2837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -2804,7 +2854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -2821,7 +2871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -2838,94 +2888,94 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="2:2">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
     </row>
-    <row r="161" spans="2:2">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
     </row>
-    <row r="162" spans="2:2">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
     </row>
-    <row r="163" spans="2:2">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="2"/>
     </row>
-    <row r="164" spans="2:2">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
     </row>
-    <row r="166" spans="2:2">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="2:2">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
     </row>
   </sheetData>
